--- a/spliced/falling/2023-03-25_18-03-09/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-09/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.436809062957764</v>
+        <v>-3.373677730560303</v>
       </c>
       <c r="D2" t="n">
-        <v>8.002476692199707</v>
+        <v>8.367032051086426</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.409347295761108</v>
+        <v>-1.811180233955384</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6193056222869129</v>
+        <v>0.08162501163598926</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1286169377768912</v>
+        <v>-0.581960884536185</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6118523001489119</v>
+        <v>0.1855354215495473</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.233324527740479</v>
+        <v>-3.436809062957764</v>
       </c>
       <c r="D3" t="n">
-        <v>7.347033500671387</v>
+        <v>8.002476692199707</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.329159736633301</v>
+        <v>-2.409347295761108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8970928599194783</v>
+        <v>0.6193056222869129</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8833782091373344</v>
+        <v>0.1286169377768912</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.204748107165821</v>
+        <v>-0.6118523001489119</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.557640552520752</v>
+        <v>-4.233324527740479</v>
       </c>
       <c r="D4" t="n">
-        <v>5.48013973236084</v>
+        <v>7.347033500671387</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.308228492736816</v>
+        <v>-3.329159736633301</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.161268437780985</v>
+        <v>0.8970928599194783</v>
       </c>
       <c r="G4" t="n">
-        <v>0.124489894727381</v>
+        <v>0.8833782091373344</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.472156795059762</v>
+        <v>-3.204748107165821</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-6.2513108253479</v>
+        <v>-4.557640552520752</v>
       </c>
       <c r="D5" t="n">
-        <v>4.66443920135498</v>
+        <v>5.48013973236084</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.362371444702148</v>
+        <v>-4.308228492736816</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.366607433412133</v>
+        <v>-0.161268437780985</v>
       </c>
       <c r="G5" t="n">
-        <v>2.737767719640964</v>
+        <v>0.124489894727381</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.411724490363423</v>
+        <v>-2.472156795059762</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.407595157623291</v>
+        <v>-6.2513108253479</v>
       </c>
       <c r="D6" t="n">
-        <v>5.533173084259033</v>
+        <v>4.66443920135498</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.768703460693359</v>
+        <v>-5.362371444702148</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.001652684517023</v>
+        <v>-2.366607433412133</v>
       </c>
       <c r="G6" t="n">
-        <v>3.962463135399469</v>
+        <v>2.737767719640964</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.871139858554049</v>
+        <v>-1.411724490363423</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.354794025421143</v>
+        <v>-6.407595157623291</v>
       </c>
       <c r="D7" t="n">
-        <v>3.896303415298462</v>
+        <v>5.533173084259033</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.691534996032715</v>
+        <v>-4.768703460693359</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06661038346043445</v>
+        <v>-2.001652684517023</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1919569562121135</v>
+        <v>3.962463135399469</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05933587689225263</v>
+        <v>-1.871139858554049</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55.61550140380859</v>
+        <v>-6.354794025421143</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.603207588195801</v>
+        <v>3.896303415298462</v>
       </c>
       <c r="E8" t="n">
-        <v>15.50844955444336</v>
+        <v>-3.691534996032715</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02138400813791778</v>
+        <v>0.06661038346043445</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1378432366906143</v>
+        <v>0.1919569562121135</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02639385003869168</v>
+        <v>0.05933587689225263</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.817588806152344</v>
+        <v>55.61550140380859</v>
       </c>
       <c r="D9" t="n">
-        <v>5.203746795654297</v>
+        <v>-7.603207588195801</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.701224803924561</v>
+        <v>15.50844955444336</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1729754304013602</v>
+        <v>-0.02138400813791778</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1063352536137511</v>
+        <v>0.1378432366906143</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01823656188278665</v>
+        <v>-0.02639385003869168</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.208892345428467</v>
+        <v>-3.817588806152344</v>
       </c>
       <c r="D10" t="n">
-        <v>4.523828029632568</v>
+        <v>5.203746795654297</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.306243419647217</v>
+        <v>-4.701224803924561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4490567220420372</v>
+        <v>0.1729754304013602</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3232520183593762</v>
+        <v>-0.1063352536137511</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.09577174720967686</v>
+        <v>-0.01823656188278665</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.054627418518066</v>
+        <v>2.208892345428467</v>
       </c>
       <c r="D11" t="n">
-        <v>6.320723056793213</v>
+        <v>4.523828029632568</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.26066255569458</v>
+        <v>-5.306243419647217</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04528970053283177</v>
+        <v>0.4490567220420372</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1171147901473975</v>
+        <v>-0.3232520183593762</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09616285126383706</v>
+        <v>-0.09577174720967686</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.682106018066406</v>
+        <v>4.054627418518066</v>
       </c>
       <c r="D12" t="n">
-        <v>6.276570796966553</v>
+        <v>6.320723056793213</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.233500480651856</v>
+        <v>-5.26066255569458</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0392033953855677</v>
+        <v>0.04528970053283177</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2259382031312803</v>
+        <v>0.1171147901473975</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1824885385065544</v>
+        <v>0.09616285126383706</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.067971229553223</v>
+        <v>3.682106018066406</v>
       </c>
       <c r="D13" t="n">
-        <v>7.197247505187988</v>
+        <v>6.276570796966553</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.232089042663574</v>
+        <v>-4.233500480651856</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03262541961015729</v>
+        <v>-0.0392033953855677</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1276075131282566</v>
+        <v>0.2259382031312803</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02622995907213681</v>
+        <v>0.1824885385065544</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.399141788482666</v>
+        <v>4.067971229553223</v>
       </c>
       <c r="D14" t="n">
-        <v>6.60714864730835</v>
+        <v>7.197247505187988</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.322453498840332</v>
+        <v>-6.232089042663574</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003914752202790014</v>
+        <v>-0.03262541961015729</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2204664746617399</v>
+        <v>-0.1276075131282566</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05295903471911827</v>
+        <v>0.02622995907213681</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.337307453155518</v>
+        <v>3.399141788482666</v>
       </c>
       <c r="D15" t="n">
-        <v>7.003424167633057</v>
+        <v>6.60714864730835</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.783712863922119</v>
+        <v>-4.322453498840332</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01699993268745699</v>
+        <v>0.003914752202790014</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00523332715397923</v>
+        <v>-0.2204664746617399</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05201666502327448</v>
+        <v>-0.05295903471911827</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.072117805480957</v>
+        <v>2.337307453155518</v>
       </c>
       <c r="D16" t="n">
-        <v>7.399670124053955</v>
+        <v>7.003424167633057</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.612285137176514</v>
+        <v>-5.783712863922119</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01029531448716063</v>
+        <v>0.01699993268745699</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03043524366689888</v>
+        <v>0.00523332715397923</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.04977434319330424</v>
+        <v>0.05201666502327448</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.665160179138184</v>
+        <v>2.072117805480957</v>
       </c>
       <c r="D17" t="n">
-        <v>6.522679805755615</v>
+        <v>7.399670124053955</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.401774883270264</v>
+        <v>-5.612285137176514</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.002801040596351329</v>
+        <v>-0.01029531448716063</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03519552141973155</v>
+        <v>-0.03043524366689888</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04244768401471578</v>
+        <v>-0.04977434319330424</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.009289264678955</v>
+        <v>2.665160179138184</v>
       </c>
       <c r="D18" t="n">
-        <v>6.934535980224609</v>
+        <v>6.522679805755615</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.890542030334473</v>
+        <v>-4.401774883270264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006436434000866758</v>
+        <v>-0.002801040596351329</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02465437250438991</v>
+        <v>-0.03519552141973155</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02476239040857406</v>
+        <v>-0.04244768401471578</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.372682571411133</v>
+        <v>3.009289264678955</v>
       </c>
       <c r="D19" t="n">
-        <v>7.015328407287598</v>
+        <v>6.934535980224609</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.779996871948242</v>
+        <v>-4.890542030334473</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0004395249685863074</v>
+        <v>0.006436434000866758</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006667370567233805</v>
+        <v>0.02465437250438991</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01120416263527254</v>
+        <v>0.02476239040857406</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.250783443450928</v>
+        <v>3.372682571411133</v>
       </c>
       <c r="D20" t="n">
-        <v>6.881857395172119</v>
+        <v>7.015328407287598</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.688606262207031</v>
+        <v>-4.779996871948242</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.004521892917137975</v>
+        <v>0.0004395249685863074</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01801680073868935</v>
+        <v>0.0006667370567233805</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.009371567176791164</v>
+        <v>0.01120416263527254</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.172102928161621</v>
+        <v>3.250783443450928</v>
       </c>
       <c r="D21" t="n">
-        <v>6.738854885101318</v>
+        <v>6.881857395172119</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.695774078369141</v>
+        <v>-4.688606262207031</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001802797383833171</v>
+        <v>-0.004521892917137975</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008086515221426697</v>
+        <v>-0.01801680073868935</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0003687540273659049</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3.045745372772217</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.850325584411621</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-4.621981143951416</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.003225666394161829</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.002238597612964259</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.004592663801570412</v>
+        <v>-0.009371567176791164</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-09/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-09/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.373677730560303</v>
+        <v>-2.507025241851806</v>
       </c>
       <c r="D2" t="n">
-        <v>8.367032051086426</v>
+        <v>9.102962493896484</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.811180233955384</v>
+        <v>-0.6246470808982849</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08162501163598926</v>
+        <v>0.02334324724790524</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.581960884536185</v>
+        <v>0.01564411001234516</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1855354215495473</v>
+        <v>0.0184190768475939</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.436809062957764</v>
+        <v>-2.812539100646973</v>
       </c>
       <c r="D3" t="n">
-        <v>8.002476692199707</v>
+        <v>9.111927032470703</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.409347295761108</v>
+        <v>-0.3471660315990448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6193056222869129</v>
+        <v>-0.001020592069480415</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1286169377768912</v>
+        <v>0.02263181184123195</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6118523001489119</v>
+        <v>-0.0006294894690920053</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.233324527740479</v>
+        <v>-2.887884616851806</v>
       </c>
       <c r="D4" t="n">
-        <v>7.347033500671387</v>
+        <v>9.205938339233398</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.329159736633301</v>
+        <v>-0.2687076330184936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8970928599194783</v>
+        <v>-0.02465064778197097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8833782091373344</v>
+        <v>0.04819875901065215</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.204748107165821</v>
+        <v>-0.01549884358920696</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.557640552520752</v>
+        <v>-2.862497329711914</v>
       </c>
       <c r="D5" t="n">
-        <v>5.48013973236084</v>
+        <v>9.105484008789062</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.308228492736816</v>
+        <v>-0.2620421051979065</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.161268437780985</v>
+        <v>0.01120043709510704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.124489894727381</v>
+        <v>0.02745168796944902</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.472156795059762</v>
+        <v>0.004529342418763651</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.2513108253479</v>
+        <v>-2.736449241638184</v>
       </c>
       <c r="D6" t="n">
-        <v>4.66443920135498</v>
+        <v>9.052282333374023</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.362371444702148</v>
+        <v>-0.2773746848106384</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.366607433412133</v>
+        <v>-0.007870477419800848</v>
       </c>
       <c r="G6" t="n">
-        <v>2.737767719640964</v>
+        <v>0.04201560953586564</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.411724490363423</v>
+        <v>0.04054804218978412</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-6.407595157623291</v>
+        <v>-2.651521682739258</v>
       </c>
       <c r="D7" t="n">
-        <v>5.533173084259033</v>
+        <v>9.127286911010742</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.768703460693359</v>
+        <v>0.0024068877100944</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.001652684517023</v>
+        <v>-0.03585853518509281</v>
       </c>
       <c r="G7" t="n">
-        <v>3.962463135399469</v>
+        <v>0.05588672146564573</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.871139858554049</v>
+        <v>0.04165430539628354</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.354794025421143</v>
+        <v>-2.57433032989502</v>
       </c>
       <c r="D8" t="n">
-        <v>3.896303415298462</v>
+        <v>9.058347702026367</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.691534996032715</v>
+        <v>0.0778785794973373</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06661038346043445</v>
+        <v>0.01350235557410764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1919569562121135</v>
+        <v>-0.04772198527324475</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05933587689225263</v>
+        <v>0.04825462864303003</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55.61550140380859</v>
+        <v>-2.764423370361328</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.603207588195801</v>
+        <v>9.000140190124512</v>
       </c>
       <c r="E9" t="n">
-        <v>15.50844955444336</v>
+        <v>-0.2859586775302887</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02138400813791778</v>
+        <v>0.06278502832098701</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1378432366906143</v>
+        <v>-0.1541466276820112</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02639385003869168</v>
+        <v>0.09075818756004657</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.817588806152344</v>
+        <v>-2.818140029907227</v>
       </c>
       <c r="D10" t="n">
-        <v>5.203746795654297</v>
+        <v>8.811227798461914</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.701224803924561</v>
+        <v>-0.6212533712387085</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1729754304013602</v>
+        <v>0.02069492338270688</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1063352536137511</v>
+        <v>-0.3678749610738054</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01823656188278665</v>
+        <v>0.1358281277665277</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.208892345428467</v>
+        <v>-3.191051483154297</v>
       </c>
       <c r="D11" t="n">
-        <v>4.523828029632568</v>
+        <v>9.015185356140137</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.306243419647217</v>
+        <v>-0.4772885143756866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4490567220420372</v>
+        <v>-0.1521724931350568</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3232520183593762</v>
+        <v>-0.4923760018697599</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.09577174720967686</v>
+        <v>0.1619388900878952</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.054627418518066</v>
+        <v>-2.787490367889404</v>
       </c>
       <c r="D12" t="n">
-        <v>6.320723056793213</v>
+        <v>8.648155212402344</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.26066255569458</v>
+        <v>-1.196338057518005</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04528970053283177</v>
+        <v>-0.2075079472326651</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1171147901473975</v>
+        <v>-0.5799234204175996</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09616285126383706</v>
+        <v>0.3153703608890859</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.682106018066406</v>
+        <v>-3.373677730560303</v>
       </c>
       <c r="D13" t="n">
-        <v>6.276570796966553</v>
+        <v>8.367032051086426</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.233500480651856</v>
+        <v>-1.811180233955384</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0392033953855677</v>
+        <v>0.08162501163598926</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2259382031312803</v>
+        <v>-0.581960884536185</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1824885385065544</v>
+        <v>0.1855354215495473</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.067971229553223</v>
+        <v>-3.436809062957764</v>
       </c>
       <c r="D14" t="n">
-        <v>7.197247505187988</v>
+        <v>8.002476692199707</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.232089042663574</v>
+        <v>-2.409347295761108</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03262541961015729</v>
+        <v>0.6193056222869129</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1276075131282566</v>
+        <v>0.1286169377768912</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02622995907213681</v>
+        <v>-0.6118523001489119</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.399141788482666</v>
+        <v>-4.233324527740479</v>
       </c>
       <c r="D15" t="n">
-        <v>6.60714864730835</v>
+        <v>7.347033500671387</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.322453498840332</v>
+        <v>-3.329159736633301</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003914752202790014</v>
+        <v>0.8970928599194783</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2204664746617399</v>
+        <v>0.8833782091373344</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.05295903471911827</v>
+        <v>-3.204748107165821</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.337307453155518</v>
+        <v>-4.557640552520752</v>
       </c>
       <c r="D16" t="n">
-        <v>7.003424167633057</v>
+        <v>5.48013973236084</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.783712863922119</v>
+        <v>-4.308228492736816</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01699993268745699</v>
+        <v>-0.161268437780985</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00523332715397923</v>
+        <v>0.124489894727381</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05201666502327448</v>
+        <v>-2.472156795059762</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.072117805480957</v>
+        <v>-6.2513108253479</v>
       </c>
       <c r="D17" t="n">
-        <v>7.399670124053955</v>
+        <v>4.66443920135498</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.612285137176514</v>
+        <v>-5.362371444702148</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01029531448716063</v>
+        <v>-2.366607433412133</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03043524366689888</v>
+        <v>2.737767719640964</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.04977434319330424</v>
+        <v>-1.411724490363423</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.665160179138184</v>
+        <v>-6.407595157623291</v>
       </c>
       <c r="D18" t="n">
-        <v>6.522679805755615</v>
+        <v>5.533173084259033</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.401774883270264</v>
+        <v>-4.768703460693359</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.002801040596351329</v>
+        <v>-2.001652684517023</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.03519552141973155</v>
+        <v>3.962463135399469</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.04244768401471578</v>
+        <v>-1.871139858554049</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.009289264678955</v>
+        <v>-6.354794025421143</v>
       </c>
       <c r="D19" t="n">
-        <v>6.934535980224609</v>
+        <v>3.896303415298462</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.890542030334473</v>
+        <v>-3.691534996032715</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006436434000866758</v>
+        <v>0.06661038346043445</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02465437250438991</v>
+        <v>0.1919569562121135</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02476239040857406</v>
+        <v>0.05933587689225263</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.372682571411133</v>
+        <v>55.61550140380859</v>
       </c>
       <c r="D20" t="n">
-        <v>7.015328407287598</v>
+        <v>-7.603207588195801</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.779996871948242</v>
+        <v>15.50844955444336</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0004395249685863074</v>
+        <v>-0.02138400813791778</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0006667370567233805</v>
+        <v>0.1378432366906143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01120416263527254</v>
+        <v>-0.02639385003869168</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.250783443450928</v>
+        <v>-3.817588806152344</v>
       </c>
       <c r="D21" t="n">
-        <v>6.881857395172119</v>
+        <v>5.203746795654297</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.688606262207031</v>
+        <v>-4.701224803924561</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.004521892917137975</v>
+        <v>0.1729754304013602</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01801680073868935</v>
+        <v>-0.1063352536137511</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009371567176791164</v>
+        <v>-0.01823656188278665</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.208892345428467</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.523828029632568</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-5.306243419647217</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4490567220420372</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.3232520183593762</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.09577174720967686</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4.054627418518066</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.320723056793213</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.26066255569458</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04528970053283177</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1171147901473975</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.09616285126383706</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.682106018066406</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.276570796966553</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-4.233500480651856</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0392033953855677</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2259382031312803</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1824885385065544</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4.067971229553223</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7.197247505187988</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.232089042663574</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.03262541961015729</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1276075131282566</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02622995907213681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.399141788482666</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.60714864730835</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.322453498840332</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.003914752202790014</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.2204664746617399</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.05295903471911827</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.337307453155518</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.003424167633057</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-5.783712863922119</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01699993268745699</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.00523332715397923</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.05201666502327448</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.072117805480957</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.399670124053955</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-5.612285137176514</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.01029531448716063</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.03043524366689888</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.04977434319330424</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2.665160179138184</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.522679805755615</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-4.401774883270264</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.002801040596351329</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.03519552141973155</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.04244768401471578</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3.009289264678955</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.934535980224609</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4.890542030334473</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.006436434000866758</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02465437250438991</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02476239040857406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.372682571411133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.015328407287598</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-4.779996871948242</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0004395249685863074</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0006667370567233805</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01120416263527254</v>
       </c>
     </row>
   </sheetData>
